--- a/data/vgp_database/Western_Central_TMVB.xlsx
+++ b/data/vgp_database/Western_Central_TMVB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A792B91-8F1D-5F4D-AAAE-7CC424135FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6DBFA2-F1E5-E34E-B8A8-537D78DB1EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2080" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="520" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,10 +423,10 @@
     <t>Lava</t>
   </si>
   <si>
-    <t>Felsitic lava:Andesitic lava</t>
+    <t>10.1111/j.1365-246X.2009.04447.x</t>
   </si>
   <si>
-    <t>10.1111/j.1365-246X.2009.04447.x</t>
+    <t>Felsic lava:Andesitic lava</t>
   </si>
 </sst>
 </file>
@@ -437,11 +437,18 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,69 +551,70 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -825,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AO10" sqref="AO10:AO60"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -858,7 +866,7 @@
     <col min="25" max="25" width="15.5" customWidth="1"/>
     <col min="26" max="26" width="8.1640625" customWidth="1"/>
     <col min="27" max="27" width="8.6640625" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" customWidth="1"/>
+    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.5" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
     <col min="31" max="31" width="8.6640625" customWidth="1"/>
@@ -1623,8 +1631,8 @@
       <c r="AA10" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB10" s="28" t="s">
-        <v>132</v>
+      <c r="AB10" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC10" s="8" t="s">
         <v>68</v>
@@ -1655,7 +1663,7 @@
       </c>
       <c r="AN10" s="3"/>
       <c r="AO10" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1722,8 +1730,8 @@
       <c r="AA11" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB11" s="28" t="s">
-        <v>132</v>
+      <c r="AB11" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC11" s="8" t="s">
         <v>68</v>
@@ -1758,7 +1766,7 @@
         <v>71</v>
       </c>
       <c r="AO11" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1827,8 +1835,8 @@
       <c r="AA12" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB12" s="28" t="s">
-        <v>132</v>
+      <c r="AB12" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC12" s="8" t="s">
         <v>68</v>
@@ -1859,7 +1867,7 @@
       </c>
       <c r="AN12" s="3"/>
       <c r="AO12" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1928,8 +1936,8 @@
       <c r="AA13" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB13" s="28" t="s">
-        <v>132</v>
+      <c r="AB13" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC13" s="8" t="s">
         <v>68</v>
@@ -1960,7 +1968,7 @@
       </c>
       <c r="AN13" s="3"/>
       <c r="AO13" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2031,8 +2039,8 @@
       <c r="AA14" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB14" s="28" t="s">
-        <v>132</v>
+      <c r="AB14" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC14" s="8" t="s">
         <v>68</v>
@@ -2063,7 +2071,7 @@
       </c>
       <c r="AN14" s="3"/>
       <c r="AO14" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2132,8 +2140,8 @@
       <c r="AA15" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB15" s="28" t="s">
-        <v>132</v>
+      <c r="AB15" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC15" s="8" t="s">
         <v>68</v>
@@ -2164,7 +2172,7 @@
       </c>
       <c r="AN15" s="3"/>
       <c r="AO15" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2233,8 +2241,8 @@
       <c r="AA16" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB16" s="28" t="s">
-        <v>132</v>
+      <c r="AB16" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC16" s="8" t="s">
         <v>68</v>
@@ -2265,7 +2273,7 @@
       </c>
       <c r="AN16" s="3"/>
       <c r="AO16" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2330,8 +2338,8 @@
       <c r="AA17" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB17" s="28" t="s">
-        <v>132</v>
+      <c r="AB17" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC17" s="8" t="s">
         <v>68</v>
@@ -2366,7 +2374,7 @@
         <v>79</v>
       </c>
       <c r="AO17" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2435,8 +2443,8 @@
       <c r="AA18" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB18" s="28" t="s">
-        <v>132</v>
+      <c r="AB18" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC18" s="8" t="s">
         <v>68</v>
@@ -2467,7 +2475,7 @@
       </c>
       <c r="AN18" s="3"/>
       <c r="AO18" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:41" ht="16" x14ac:dyDescent="0.2">
@@ -2536,8 +2544,8 @@
       <c r="AA19" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB19" s="28" t="s">
-        <v>132</v>
+      <c r="AB19" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC19" s="8" t="s">
         <v>68</v>
@@ -2568,7 +2576,7 @@
       </c>
       <c r="AN19" s="3"/>
       <c r="AO19" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2637,8 +2645,8 @@
       <c r="AA20" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB20" s="28" t="s">
-        <v>132</v>
+      <c r="AB20" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC20" s="8" t="s">
         <v>68</v>
@@ -2669,7 +2677,7 @@
       </c>
       <c r="AN20" s="24"/>
       <c r="AO20" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:41" ht="16" x14ac:dyDescent="0.2">
@@ -2738,8 +2746,8 @@
       <c r="AA21" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB21" s="28" t="s">
-        <v>132</v>
+      <c r="AB21" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC21" s="8" t="s">
         <v>68</v>
@@ -2770,7 +2778,7 @@
       </c>
       <c r="AN21" s="3"/>
       <c r="AO21" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:41" ht="16" x14ac:dyDescent="0.2">
@@ -2837,8 +2845,8 @@
       <c r="AA22" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB22" s="28" t="s">
-        <v>132</v>
+      <c r="AB22" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC22" s="8" t="s">
         <v>68</v>
@@ -2869,7 +2877,7 @@
       </c>
       <c r="AN22" s="3"/>
       <c r="AO22" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2938,8 +2946,8 @@
       <c r="AA23" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB23" s="28" t="s">
-        <v>132</v>
+      <c r="AB23" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC23" s="8" t="s">
         <v>68</v>
@@ -2970,7 +2978,7 @@
       </c>
       <c r="AN23" s="3"/>
       <c r="AO23" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3039,8 +3047,8 @@
       <c r="AA24" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB24" s="28" t="s">
-        <v>132</v>
+      <c r="AB24" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC24" s="8" t="s">
         <v>68</v>
@@ -3075,7 +3083,7 @@
         <v>89</v>
       </c>
       <c r="AO24" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:41" ht="16" x14ac:dyDescent="0.2">
@@ -3146,8 +3154,8 @@
       <c r="AA25" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB25" s="28" t="s">
-        <v>132</v>
+      <c r="AB25" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC25" s="8" t="s">
         <v>68</v>
@@ -3178,7 +3186,7 @@
       </c>
       <c r="AN25" s="3"/>
       <c r="AO25" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3247,8 +3255,8 @@
       <c r="AA26" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB26" s="28" t="s">
-        <v>132</v>
+      <c r="AB26" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC26" s="8" t="s">
         <v>68</v>
@@ -3279,7 +3287,7 @@
       </c>
       <c r="AN26" s="3"/>
       <c r="AO26" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3348,8 +3356,8 @@
       <c r="AA27" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB27" s="28" t="s">
-        <v>132</v>
+      <c r="AB27" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC27" s="8" t="s">
         <v>68</v>
@@ -3380,7 +3388,7 @@
       </c>
       <c r="AN27" s="3"/>
       <c r="AO27" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3449,8 +3457,8 @@
       <c r="AA28" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB28" s="28" t="s">
-        <v>132</v>
+      <c r="AB28" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC28" s="8" t="s">
         <v>68</v>
@@ -3481,7 +3489,7 @@
       </c>
       <c r="AN28" s="3"/>
       <c r="AO28" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3550,8 +3558,8 @@
       <c r="AA29" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB29" s="28" t="s">
-        <v>132</v>
+      <c r="AB29" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC29" s="8" t="s">
         <v>68</v>
@@ -3582,7 +3590,7 @@
       </c>
       <c r="AN29" s="3"/>
       <c r="AO29" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:41" ht="16" x14ac:dyDescent="0.2">
@@ -3653,8 +3661,8 @@
       <c r="AA30" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB30" s="28" t="s">
-        <v>132</v>
+      <c r="AB30" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC30" s="8" t="s">
         <v>68</v>
@@ -3685,7 +3693,7 @@
       </c>
       <c r="AN30" s="3"/>
       <c r="AO30" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3754,8 +3762,8 @@
       <c r="AA31" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB31" s="28" t="s">
-        <v>132</v>
+      <c r="AB31" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC31" s="8" t="s">
         <v>68</v>
@@ -3786,7 +3794,7 @@
       </c>
       <c r="AN31" s="3"/>
       <c r="AO31" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3855,8 +3863,8 @@
       <c r="AA32" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB32" s="28" t="s">
-        <v>132</v>
+      <c r="AB32" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC32" s="8" t="s">
         <v>68</v>
@@ -3891,7 +3899,7 @@
         <v>89</v>
       </c>
       <c r="AO32" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:41" ht="16" x14ac:dyDescent="0.2">
@@ -3962,8 +3970,8 @@
       <c r="AA33" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB33" s="28" t="s">
-        <v>132</v>
+      <c r="AB33" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC33" s="8" t="s">
         <v>68</v>
@@ -3993,7 +4001,7 @@
         <v>46</v>
       </c>
       <c r="AO33" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:41" ht="16" x14ac:dyDescent="0.2">
@@ -4062,8 +4070,8 @@
       <c r="AA34" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB34" s="28" t="s">
-        <v>132</v>
+      <c r="AB34" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC34" s="8" t="s">
         <v>68</v>
@@ -4094,7 +4102,7 @@
       </c>
       <c r="AN34" s="3"/>
       <c r="AO34" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4163,8 +4171,8 @@
       <c r="AA35" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB35" s="28" t="s">
-        <v>132</v>
+      <c r="AB35" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC35" s="8" t="s">
         <v>68</v>
@@ -4195,7 +4203,7 @@
       </c>
       <c r="AN35" s="3"/>
       <c r="AO35" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:41" ht="16" x14ac:dyDescent="0.2">
@@ -4264,8 +4272,8 @@
       <c r="AA36" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB36" s="28" t="s">
-        <v>132</v>
+      <c r="AB36" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC36" s="8" t="s">
         <v>68</v>
@@ -4296,7 +4304,7 @@
       </c>
       <c r="AN36" s="3"/>
       <c r="AO36" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4365,8 +4373,8 @@
       <c r="AA37" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB37" s="28" t="s">
-        <v>132</v>
+      <c r="AB37" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC37" s="8" t="s">
         <v>68</v>
@@ -4397,7 +4405,7 @@
       </c>
       <c r="AN37" s="3"/>
       <c r="AO37" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4462,8 +4470,8 @@
       <c r="AA38" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB38" s="28" t="s">
-        <v>132</v>
+      <c r="AB38" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC38" s="8" t="s">
         <v>68</v>
@@ -4498,7 +4506,7 @@
         <v>79</v>
       </c>
       <c r="AO38" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4569,8 +4577,8 @@
       <c r="AA39" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB39" s="28" t="s">
-        <v>132</v>
+      <c r="AB39" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC39" s="8" t="s">
         <v>68</v>
@@ -4601,7 +4609,7 @@
       </c>
       <c r="AN39" s="24"/>
       <c r="AO39" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4672,8 +4680,8 @@
       <c r="AA40" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB40" s="28" t="s">
-        <v>132</v>
+      <c r="AB40" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC40" s="8" t="s">
         <v>68</v>
@@ -4704,7 +4712,7 @@
       </c>
       <c r="AN40" s="24"/>
       <c r="AO40" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4773,8 +4781,8 @@
       <c r="AA41" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB41" s="28" t="s">
-        <v>132</v>
+      <c r="AB41" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC41" s="8" t="s">
         <v>68</v>
@@ -4805,7 +4813,7 @@
       </c>
       <c r="AN41" s="24"/>
       <c r="AO41" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:41" ht="16" x14ac:dyDescent="0.2">
@@ -4874,8 +4882,8 @@
       <c r="AA42" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB42" s="28" t="s">
-        <v>132</v>
+      <c r="AB42" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC42" s="8" t="s">
         <v>68</v>
@@ -4906,7 +4914,7 @@
       </c>
       <c r="AN42" s="3"/>
       <c r="AO42" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:41" ht="16" x14ac:dyDescent="0.2">
@@ -4973,8 +4981,8 @@
       <c r="AA43" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB43" s="28" t="s">
-        <v>132</v>
+      <c r="AB43" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC43" s="8" t="s">
         <v>68</v>
@@ -5009,7 +5017,7 @@
         <v>79</v>
       </c>
       <c r="AO43" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:41" ht="16" x14ac:dyDescent="0.2">
@@ -5080,8 +5088,8 @@
       <c r="AA44" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB44" s="28" t="s">
-        <v>132</v>
+      <c r="AB44" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC44" s="8" t="s">
         <v>68</v>
@@ -5116,7 +5124,7 @@
         <v>89</v>
       </c>
       <c r="AO44" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5185,8 +5193,8 @@
       <c r="AA45" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB45" s="28" t="s">
-        <v>132</v>
+      <c r="AB45" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC45" s="8" t="s">
         <v>68</v>
@@ -5217,7 +5225,7 @@
       </c>
       <c r="AN45" s="24"/>
       <c r="AO45" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5288,8 +5296,8 @@
       <c r="AA46" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB46" s="28" t="s">
-        <v>132</v>
+      <c r="AB46" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC46" s="8" t="s">
         <v>68</v>
@@ -5320,7 +5328,7 @@
       </c>
       <c r="AN46" s="24"/>
       <c r="AO46" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5391,8 +5399,8 @@
       <c r="AA47" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB47" s="28" t="s">
-        <v>132</v>
+      <c r="AB47" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC47" s="8" t="s">
         <v>68</v>
@@ -5423,7 +5431,7 @@
       </c>
       <c r="AN47" s="24"/>
       <c r="AO47" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:41" ht="16" x14ac:dyDescent="0.2">
@@ -5494,8 +5502,8 @@
       <c r="AA48" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB48" s="28" t="s">
-        <v>132</v>
+      <c r="AB48" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC48" s="8" t="s">
         <v>68</v>
@@ -5526,7 +5534,7 @@
       </c>
       <c r="AN48" s="3"/>
       <c r="AO48" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -5597,8 +5605,8 @@
       <c r="AA49" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB49" s="28" t="s">
-        <v>132</v>
+      <c r="AB49" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC49" s="8" t="s">
         <v>68</v>
@@ -5629,7 +5637,7 @@
       </c>
       <c r="AN49" s="3"/>
       <c r="AO49" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5700,8 +5708,8 @@
       <c r="AA50" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB50" s="28" t="s">
-        <v>132</v>
+      <c r="AB50" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC50" s="8" t="s">
         <v>68</v>
@@ -5732,7 +5740,7 @@
       </c>
       <c r="AN50" s="3"/>
       <c r="AO50" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5801,8 +5809,8 @@
       <c r="AA51" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB51" s="28" t="s">
-        <v>132</v>
+      <c r="AB51" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC51" s="8" t="s">
         <v>68</v>
@@ -5833,7 +5841,7 @@
       </c>
       <c r="AN51" s="3"/>
       <c r="AO51" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -5904,8 +5912,8 @@
       <c r="AA52" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB52" s="28" t="s">
-        <v>132</v>
+      <c r="AB52" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC52" s="8" t="s">
         <v>68</v>
@@ -5936,7 +5944,7 @@
       </c>
       <c r="AN52" s="3"/>
       <c r="AO52" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6007,8 +6015,8 @@
       <c r="AA53" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB53" s="28" t="s">
-        <v>132</v>
+      <c r="AB53" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC53" s="8" t="s">
         <v>68</v>
@@ -6039,7 +6047,7 @@
       </c>
       <c r="AN53" s="3"/>
       <c r="AO53" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -6110,8 +6118,8 @@
       <c r="AA54" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB54" s="28" t="s">
-        <v>132</v>
+      <c r="AB54" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC54" s="8" t="s">
         <v>68</v>
@@ -6142,7 +6150,7 @@
       </c>
       <c r="AN54" s="3"/>
       <c r="AO54" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -6213,8 +6221,8 @@
       <c r="AA55" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB55" s="28" t="s">
-        <v>132</v>
+      <c r="AB55" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC55" s="8" t="s">
         <v>68</v>
@@ -6245,7 +6253,7 @@
       </c>
       <c r="AN55" s="3"/>
       <c r="AO55" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -6316,8 +6324,8 @@
       <c r="AA56" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB56" s="28" t="s">
-        <v>132</v>
+      <c r="AB56" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC56" s="8" t="s">
         <v>68</v>
@@ -6348,7 +6356,7 @@
       </c>
       <c r="AN56" s="3"/>
       <c r="AO56" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6419,8 +6427,8 @@
       <c r="AA57" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB57" s="28" t="s">
-        <v>132</v>
+      <c r="AB57" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC57" s="8" t="s">
         <v>68</v>
@@ -6451,7 +6459,7 @@
       </c>
       <c r="AN57" s="24"/>
       <c r="AO57" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6520,8 +6528,8 @@
       <c r="AA58" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB58" s="28" t="s">
-        <v>132</v>
+      <c r="AB58" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC58" s="8" t="s">
         <v>68</v>
@@ -6552,7 +6560,7 @@
       </c>
       <c r="AN58" s="24"/>
       <c r="AO58" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6623,8 +6631,8 @@
       <c r="AA59" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB59" s="28" t="s">
-        <v>132</v>
+      <c r="AB59" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC59" s="8" t="s">
         <v>68</v>
@@ -6655,7 +6663,7 @@
       </c>
       <c r="AN59" s="24"/>
       <c r="AO59" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6726,8 +6734,8 @@
       <c r="AA60" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AB60" s="28" t="s">
-        <v>132</v>
+      <c r="AB60" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AC60" s="8" t="s">
         <v>68</v>
@@ -6762,7 +6770,7 @@
         <v>89</v>
       </c>
       <c r="AO60" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/data/vgp_database/Western_Central_TMVB.xlsx
+++ b/data/vgp_database/Western_Central_TMVB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6DBFA2-F1E5-E34E-B8A8-537D78DB1EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A1FF6-8535-2A49-B739-271DA63C0CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="520" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -833,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S6" workbookViewId="0">
       <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
